--- a/assets/timeLineGanttChartSummative.xlsx
+++ b/assets/timeLineGanttChartSummative.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/845836268/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/845836268/Desktop/dataVis/www/Summative03/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="18440" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Manual Gantt Chart" sheetId="5" r:id="rId1"/>
@@ -545,6 +545,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -563,22 +579,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -1304,11 +1304,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="834487280"/>
-        <c:axId val="834489056"/>
+        <c:axId val="1963660064"/>
+        <c:axId val="1963661840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="834487280"/>
+        <c:axId val="1963660064"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1351,7 +1351,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="834489056"/>
+        <c:crossAx val="1963661840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1359,7 +1359,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="834489056"/>
+        <c:axId val="1963661840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42576.0"/>
@@ -1411,7 +1411,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="834487280"/>
+        <c:crossAx val="1963660064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2418,11 +2418,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="694102256"/>
-        <c:axId val="694104304"/>
+        <c:axId val="1963036288"/>
+        <c:axId val="1963688784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="694102256"/>
+        <c:axId val="1963036288"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2465,7 +2465,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="694104304"/>
+        <c:crossAx val="1963688784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2473,7 +2473,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="694104304"/>
+        <c:axId val="1963688784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42576.0"/>
@@ -2527,7 +2527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="694102256"/>
+        <c:crossAx val="1963036288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -2856,14 +2856,14 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:invertIfNegative val="1"/>
           <c:dPt>
             <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="72C9DE"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2873,11 +2873,11 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="528E77"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2887,11 +2887,11 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="528E77"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2901,11 +2901,11 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="528E77"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2915,11 +2915,14 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="B86FD7"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2929,11 +2932,65 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="B86FD7"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2943,11 +3000,14 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="B86FD7"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2957,11 +3017,14 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C14B3A"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2971,11 +3034,14 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C14B3A"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2985,11 +3051,14 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="72C9DE"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2999,11 +3068,14 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="72C9DE"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3013,11 +3085,82 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="72C9DE"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3027,11 +3170,14 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="21"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="528E77"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3041,11 +3187,14 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="22"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="528E77"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3055,11 +3204,11 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="23"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="B86FD7"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3069,11 +3218,11 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="24"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="B86FD7"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3302,6 +3451,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3311,7 +3475,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="C00000"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3325,7 +3492,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="BBE6EF"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3339,7 +3509,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="AFD3C5"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3353,7 +3526,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="AFD3C5"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3367,7 +3543,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="AFD3C5"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3381,7 +3560,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="D5A8E7"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3395,7 +3577,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="D5A8E7"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3409,7 +3594,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="D5A8E7"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3423,7 +3611,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="E3B3AA"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3437,7 +3628,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="E3B3AA"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3451,7 +3645,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="BBE6EF"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3465,7 +3662,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="BBE6EF"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3479,7 +3679,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="BBE6EF"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3493,7 +3696,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="AFD3C5"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3507,7 +3713,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="AFD3C5"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3521,7 +3730,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="D5A8E7"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3535,7 +3747,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="D5A8E7"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3775,11 +3990,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="817300896"/>
-        <c:axId val="817302672"/>
+        <c:axId val="1940891952"/>
+        <c:axId val="1940893728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="817300896"/>
+        <c:axId val="1940891952"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3829,7 +4044,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="817302672"/>
+        <c:crossAx val="1940893728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3837,7 +4052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="817302672"/>
+        <c:axId val="1940893728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43184.0"/>
@@ -3892,7 +4107,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="817300896"/>
+        <c:crossAx val="1940891952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6213,16 +6428,16 @@
         <f>C5</f>
         <v>42576</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
     </row>
     <row r="5" spans="2:20" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="25" t="s">
@@ -6578,34 +6793,34 @@
       <c r="G32" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="43" t="s">
+      <c r="H32" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="45" t="s">
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
     </row>
     <row r="33" spans="8:16" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H33" s="44" t="s">
+      <c r="H33" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44" t="s">
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6648,24 +6863,24 @@
   <sheetData>
     <row r="1" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:22" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
@@ -6722,15 +6937,15 @@
         <f>C5</f>
         <v>42576</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
     </row>
     <row r="5" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="27" t="s">
@@ -7340,18 +7555,18 @@
       <c r="J31" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K31" s="43" t="s">
+      <c r="K31" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="45" t="s">
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
     </row>
     <row r="32" spans="2:18" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="14"/>
@@ -7361,18 +7576,18 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="K32" s="44" t="s">
+      <c r="K32" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44" t="s">
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
     </row>
     <row r="33" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="14"/>
@@ -7584,7 +7799,7 @@
   <dimension ref="B1:V62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7605,24 +7820,24 @@
   <sheetData>
     <row r="1" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:22" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
@@ -7679,15 +7894,15 @@
         <f>C5</f>
         <v>43164</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
     </row>
     <row r="5" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="41" t="s">
@@ -7696,7 +7911,7 @@
       <c r="C5" s="36">
         <v>43164</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="46">
         <v>43165</v>
       </c>
       <c r="E5" s="37">
@@ -7776,7 +7991,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="20">
-        <f t="shared" ref="G5:G38" si="0">IF(F8="","",(D8-C8)-F8)</f>
+        <f t="shared" ref="G8:G29" si="0">IF(F8="","",(D8-C8)-F8)</f>
         <v>0</v>
       </c>
       <c r="H8" s="7">
@@ -7838,7 +8053,7 @@
         <v>43165</v>
       </c>
       <c r="D11" s="32">
-        <f t="shared" ref="D11:D38" si="1">IF(ISBLANK(E11),"",E11+C11)</f>
+        <f t="shared" ref="D11:D29" si="1">IF(ISBLANK(E11),"",E11+C11)</f>
         <v>43166</v>
       </c>
       <c r="E11" s="35">
@@ -8249,7 +8464,7 @@
       <c r="B28" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="53">
+      <c r="C28" s="47">
         <v>43167</v>
       </c>
       <c r="D28" s="32">
@@ -8260,7 +8475,7 @@
         <v>16</v>
       </c>
       <c r="F28" s="33">
-        <f t="shared" ref="F5:F35" si="2">IF(((D28)=""),"",(H28)*(D28-C28))</f>
+        <f t="shared" ref="F28:F35" si="2">IF(((D28)=""),"",(H28)*(D28-C28))</f>
         <v>0</v>
       </c>
       <c r="G28" s="33">
@@ -8275,7 +8490,7 @@
       <c r="B29" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="50">
+      <c r="C29" s="44">
         <v>43167</v>
       </c>
       <c r="D29" s="19">
@@ -8301,10 +8516,10 @@
       <c r="B30" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="50">
+      <c r="C30" s="44">
         <v>43167</v>
       </c>
-      <c r="D30" s="49">
+      <c r="D30" s="43">
         <v>43168</v>
       </c>
       <c r="E30" s="6">
@@ -8325,10 +8540,10 @@
       <c r="B31" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="50">
+      <c r="C31" s="44">
         <v>43167</v>
       </c>
-      <c r="D31" s="49">
+      <c r="D31" s="43">
         <v>43168</v>
       </c>
       <c r="E31" s="6">
@@ -8349,10 +8564,10 @@
       <c r="B32" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="50">
+      <c r="C32" s="44">
         <v>43168</v>
       </c>
-      <c r="D32" s="49">
+      <c r="D32" s="43">
         <v>43169</v>
       </c>
       <c r="E32" s="6">
@@ -8373,10 +8588,10 @@
       <c r="B33" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="50">
+      <c r="C33" s="44">
         <v>43168</v>
       </c>
-      <c r="D33" s="49">
+      <c r="D33" s="43">
         <v>43180</v>
       </c>
       <c r="E33" s="6">
@@ -8397,10 +8612,10 @@
       <c r="B34" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="50">
+      <c r="C34" s="44">
         <v>43169</v>
       </c>
-      <c r="D34" s="49">
+      <c r="D34" s="43">
         <v>43185</v>
       </c>
       <c r="E34" s="6">
@@ -8421,10 +8636,10 @@
       <c r="B35" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="51">
+      <c r="C35" s="45">
         <v>43180</v>
       </c>
-      <c r="D35" s="49">
+      <c r="D35" s="43">
         <v>43181</v>
       </c>
       <c r="E35" s="6">
@@ -8445,10 +8660,10 @@
       <c r="B36" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="51">
+      <c r="C36" s="45">
         <v>43181</v>
       </c>
-      <c r="D36" s="49">
+      <c r="D36" s="43">
         <v>43182</v>
       </c>
       <c r="E36" s="6">
@@ -8471,7 +8686,7 @@
       <c r="C37" s="9">
         <v>43182</v>
       </c>
-      <c r="D37" s="49">
+      <c r="D37" s="43">
         <v>43183</v>
       </c>
       <c r="E37" s="6">
@@ -8491,7 +8706,7 @@
       <c r="B38" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="54">
+      <c r="C38" s="48">
         <v>43182</v>
       </c>
       <c r="D38" s="32">
@@ -8531,18 +8746,18 @@
       <c r="J40" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K40" s="43" t="s">
+      <c r="K40" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="45" t="s">
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="45"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
     </row>
     <row r="41" spans="2:18" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="14"/>
@@ -8552,18 +8767,18 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="K41" s="44" t="s">
+      <c r="K41" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="44" t="s">
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="44"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="50"/>
     </row>
     <row r="42" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="14"/>

--- a/assets/timeLineGanttChartSummative.xlsx
+++ b/assets/timeLineGanttChartSummative.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="580" yWindow="1060" windowWidth="35700" windowHeight="20180" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Manual Gantt Chart" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="69">
   <si>
     <t>Start Date</t>
   </si>
@@ -160,9 +160,6 @@
     <t>Choose / define frameworks</t>
   </si>
   <si>
-    <t>Define project team / member scope</t>
-  </si>
-  <si>
     <t>Competitor analysis</t>
   </si>
   <si>
@@ -217,13 +214,28 @@
     <t>Project Hand over</t>
   </si>
   <si>
-    <t>Cost breakdown and  anaylsis</t>
-  </si>
-  <si>
     <t>Evaluation</t>
   </si>
   <si>
     <t>Closure</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Members</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Duke / Jesse / Jordan</t>
   </si>
 </sst>
 </file>
@@ -276,6 +288,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,6 +297,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,7 +372,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -437,6 +451,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -463,7 +538,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -530,14 +605,12 @@
     <xf numFmtId="2" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -561,6 +634,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="8" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -578,6 +665,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -1304,11 +1394,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1963660064"/>
-        <c:axId val="1963661840"/>
+        <c:axId val="-2117150880"/>
+        <c:axId val="-2087606832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1963660064"/>
+        <c:axId val="-2117150880"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1351,7 +1441,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1963661840"/>
+        <c:crossAx val="-2087606832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1359,7 +1449,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1963661840"/>
+        <c:axId val="-2087606832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42576.0"/>
@@ -1411,7 +1501,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1963660064"/>
+        <c:crossAx val="-2117150880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2418,11 +2508,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1963036288"/>
-        <c:axId val="1963688784"/>
+        <c:axId val="2144586160"/>
+        <c:axId val="2144588208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1963036288"/>
+        <c:axId val="2144586160"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2465,7 +2555,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1963688784"/>
+        <c:crossAx val="2144588208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2473,7 +2563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1963688784"/>
+        <c:axId val="2144588208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42576.0"/>
@@ -2527,7 +2617,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1963036288"/>
+        <c:crossAx val="2144586160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -2595,8 +2685,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.293777508580658"/>
-          <c:y val="0.0391745438144814"/>
+          <c:x val="0.285721897358876"/>
+          <c:y val="0.0485482208343986"/>
           <c:w val="0.665527537802714"/>
           <c:h val="0.951278916806044"/>
         </c:manualLayout>
@@ -2621,9 +2711,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Gantt Chart - Manual Duration'!$B$5:$B$38</c:f>
+              <c:f>'Gantt Chart - Manual Duration'!$B$5:$B$36</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>Initiating the project / Milestone one</c:v>
                 </c:pt>
@@ -2655,75 +2745,69 @@
                   <c:v>Choose UX methodology / Agile</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Cost breakdown and  anaylsis</c:v>
+                  <c:v>Timeline / workflow</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Timeline / workflow</c:v>
+                  <c:v>Program Evaluation Research Task (PERT)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Program Evaluation Research Task (PERT)</c:v>
+                  <c:v>Work breakdown structure (WBS)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Work breakdown structure (WBS)</c:v>
+                  <c:v>Choose / define frameworks</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Define project team / member scope</c:v>
+                  <c:v>Competitor analysis</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Choose / define frameworks</c:v>
+                  <c:v>Identify Key content from brief</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Competitor analysis</c:v>
+                  <c:v>Select code methodologys</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Identify Key content from brief</c:v>
+                  <c:v>UX research / Card sorting / personas</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Select code methodologys</c:v>
+                  <c:v>Identify key code content / calls to action / interactivity</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>UX research / Card sorting / personas</c:v>
+                  <c:v>Information Gathering</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Identify key code content / calls to action / interactivity</c:v>
+                  <c:v>Define team best practises / style guides</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Information Gathering</c:v>
+                  <c:v>Executing the project / Milestone Three</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Define team best practises / style guides</c:v>
+                  <c:v>Lo-fi wire frames</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Executing the project / Milestone Three</c:v>
+                  <c:v>User testing / feed back</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Lo-fi wire frames</c:v>
+                  <c:v>Hi-fi wireframes</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>User &amp; group testing / feed back</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Coding</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>User testing / feed back</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>Hi-fi wireframes</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>User &amp; group testing / feed back</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>Coding</c:v>
+                  <c:v>Client presentation</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>User testing / feed back</c:v>
+                  <c:v>Project Hand over</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Client presentation</c:v>
+                  <c:v>Evaluation</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Project Hand over</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Evaluation</c:v>
-                </c:pt>
-                <c:pt idx="33">
                   <c:v>Closure</c:v>
                 </c:pt>
               </c:strCache>
@@ -2731,10 +2815,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gantt Chart - Manual Duration'!$C$5:$C$38</c:f>
+              <c:f>'Gantt Chart - Manual Duration'!$C$5:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>43164.0</c:v>
                 </c:pt>
@@ -2799,10 +2883,10 @@
                   <c:v>43165.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43165.0</c:v>
+                  <c:v>43167.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43165.0</c:v>
+                  <c:v>43167.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>43167.0</c:v>
@@ -2811,30 +2895,24 @@
                   <c:v>43167.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43167.0</c:v>
+                  <c:v>43168.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43167.0</c:v>
+                  <c:v>43168.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43168.0</c:v>
+                  <c:v>43169.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43168.0</c:v>
+                  <c:v>43180.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43169.0</c:v>
+                  <c:v>43181.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43180.0</c:v>
+                  <c:v>43182.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43181.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43182.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
                   <c:v>43182.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2849,7 +2927,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:srgbClr val="70AD47"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3174,10 +3252,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3191,37 +3266,6 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="23"/>
-            <c:invertIfNegative val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="24"/>
-            <c:invertIfNegative val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln>
@@ -3232,9 +3276,9 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Gantt Chart - Manual Duration'!$B$5:$B$38</c:f>
+              <c:f>'Gantt Chart - Manual Duration'!$B$5:$B$36</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>Initiating the project / Milestone one</c:v>
                 </c:pt>
@@ -3266,75 +3310,69 @@
                   <c:v>Choose UX methodology / Agile</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Cost breakdown and  anaylsis</c:v>
+                  <c:v>Timeline / workflow</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Timeline / workflow</c:v>
+                  <c:v>Program Evaluation Research Task (PERT)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Program Evaluation Research Task (PERT)</c:v>
+                  <c:v>Work breakdown structure (WBS)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Work breakdown structure (WBS)</c:v>
+                  <c:v>Choose / define frameworks</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Define project team / member scope</c:v>
+                  <c:v>Competitor analysis</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Choose / define frameworks</c:v>
+                  <c:v>Identify Key content from brief</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Competitor analysis</c:v>
+                  <c:v>Select code methodologys</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Identify Key content from brief</c:v>
+                  <c:v>UX research / Card sorting / personas</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Select code methodologys</c:v>
+                  <c:v>Identify key code content / calls to action / interactivity</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>UX research / Card sorting / personas</c:v>
+                  <c:v>Information Gathering</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Identify key code content / calls to action / interactivity</c:v>
+                  <c:v>Define team best practises / style guides</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Information Gathering</c:v>
+                  <c:v>Executing the project / Milestone Three</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Define team best practises / style guides</c:v>
+                  <c:v>Lo-fi wire frames</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Executing the project / Milestone Three</c:v>
+                  <c:v>User testing / feed back</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Lo-fi wire frames</c:v>
+                  <c:v>Hi-fi wireframes</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>User &amp; group testing / feed back</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Coding</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>User testing / feed back</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>Hi-fi wireframes</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>User &amp; group testing / feed back</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>Coding</c:v>
+                  <c:v>Client presentation</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>User testing / feed back</c:v>
+                  <c:v>Project Hand over</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Client presentation</c:v>
+                  <c:v>Evaluation</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Project Hand over</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Evaluation</c:v>
-                </c:pt>
-                <c:pt idx="33">
                   <c:v>Closure</c:v>
                 </c:pt>
               </c:strCache>
@@ -3342,10 +3380,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gantt Chart - Manual Duration'!$F$5:$F$38</c:f>
+              <c:f>'Gantt Chart - Manual Duration'!$F$5:$F$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -3365,55 +3403,55 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.0</c:v>
@@ -3440,12 +3478,6 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3589,7 +3621,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="11"/>
+            <c:idx val="10"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3606,7 +3638,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="12"/>
+            <c:idx val="11"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3623,7 +3655,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="13"/>
+            <c:idx val="12"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3640,7 +3672,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="14"/>
+            <c:idx val="13"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3657,7 +3689,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="15"/>
+            <c:idx val="14"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3674,7 +3706,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="16"/>
+            <c:idx val="19"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3691,7 +3723,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="21"/>
+            <c:idx val="20"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3708,7 +3740,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="22"/>
+            <c:idx val="21"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3725,7 +3757,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="23"/>
+            <c:idx val="22"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3741,28 +3773,11 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="24"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Gantt Chart - Manual Duration'!$B$5:$B$38</c:f>
+              <c:f>'Gantt Chart - Manual Duration'!$B$5:$B$36</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>Initiating the project / Milestone one</c:v>
                 </c:pt>
@@ -3794,75 +3809,69 @@
                   <c:v>Choose UX methodology / Agile</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Cost breakdown and  anaylsis</c:v>
+                  <c:v>Timeline / workflow</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Timeline / workflow</c:v>
+                  <c:v>Program Evaluation Research Task (PERT)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Program Evaluation Research Task (PERT)</c:v>
+                  <c:v>Work breakdown structure (WBS)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Work breakdown structure (WBS)</c:v>
+                  <c:v>Choose / define frameworks</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Define project team / member scope</c:v>
+                  <c:v>Competitor analysis</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Choose / define frameworks</c:v>
+                  <c:v>Identify Key content from brief</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Competitor analysis</c:v>
+                  <c:v>Select code methodologys</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Identify Key content from brief</c:v>
+                  <c:v>UX research / Card sorting / personas</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Select code methodologys</c:v>
+                  <c:v>Identify key code content / calls to action / interactivity</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>UX research / Card sorting / personas</c:v>
+                  <c:v>Information Gathering</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Identify key code content / calls to action / interactivity</c:v>
+                  <c:v>Define team best practises / style guides</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Information Gathering</c:v>
+                  <c:v>Executing the project / Milestone Three</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Define team best practises / style guides</c:v>
+                  <c:v>Lo-fi wire frames</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Executing the project / Milestone Three</c:v>
+                  <c:v>User testing / feed back</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Lo-fi wire frames</c:v>
+                  <c:v>Hi-fi wireframes</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>User &amp; group testing / feed back</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Coding</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>User testing / feed back</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>Hi-fi wireframes</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>User &amp; group testing / feed back</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>Coding</c:v>
+                  <c:v>Client presentation</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>User testing / feed back</c:v>
+                  <c:v>Project Hand over</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Client presentation</c:v>
+                  <c:v>Evaluation</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Project Hand over</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Evaluation</c:v>
-                </c:pt>
-                <c:pt idx="33">
                   <c:v>Closure</c:v>
                 </c:pt>
               </c:strCache>
@@ -3870,10 +3879,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gantt Chart - Manual Duration'!$G$5:$G$38</c:f>
+              <c:f>'Gantt Chart - Manual Duration'!$G$5:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -3893,58 +3902,58 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>16.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1.0</c:v>
@@ -3953,13 +3962,13 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1.0</c:v>
@@ -3968,12 +3977,6 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3990,11 +3993,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1940891952"/>
-        <c:axId val="1940893728"/>
+        <c:axId val="-2069606368"/>
+        <c:axId val="-2069604592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1940891952"/>
+        <c:axId val="-2069606368"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4044,7 +4047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1940893728"/>
+        <c:crossAx val="-2069604592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4052,7 +4055,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1940893728"/>
+        <c:axId val="-2069604592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43184.0"/>
@@ -4107,7 +4110,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1940891952"/>
+        <c:crossAx val="-2069606368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6044,16 +6047,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>31943</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>61576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>753150</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>226676</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6428,16 +6431,16 @@
         <f>C5</f>
         <v>42576</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
     </row>
     <row r="5" spans="2:20" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="25" t="s">
@@ -6793,34 +6796,34 @@
       <c r="G32" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="49" t="s">
+      <c r="H32" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="51" t="s">
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
     </row>
     <row r="33" spans="8:16" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H33" s="50" t="s">
+      <c r="H33" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50" t="s">
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6863,24 +6866,24 @@
   <sheetData>
     <row r="1" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:22" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
@@ -6937,15 +6940,15 @@
         <f>C5</f>
         <v>42576</v>
       </c>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
     </row>
     <row r="5" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="27" t="s">
@@ -7555,18 +7558,18 @@
       <c r="J31" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K31" s="49" t="s">
+      <c r="K31" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="51" t="s">
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
     </row>
     <row r="32" spans="2:18" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="14"/>
@@ -7576,18 +7579,18 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="K32" s="50" t="s">
+      <c r="K32" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50" t="s">
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
     </row>
     <row r="33" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="14"/>
@@ -7796,10 +7799,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="B1:V62"/>
+  <dimension ref="B1:W58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7807,42 +7810,43 @@
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="47.1640625" customWidth="1"/>
     <col min="3" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="12" max="12" width="2" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" customWidth="1"/>
-    <col min="20" max="20" width="20.1640625" customWidth="1"/>
-    <col min="21" max="21" width="12.5" customWidth="1"/>
-    <col min="22" max="22" width="11.33203125" customWidth="1"/>
+    <col min="9" max="10" width="26" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="13" max="13" width="2" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" customWidth="1"/>
+    <col min="21" max="21" width="20.1640625" customWidth="1"/>
+    <col min="22" max="22" width="12.5" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:22" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="5"/>
+    <row r="1" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:23" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
-    </row>
-    <row r="3" spans="2:22" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W2" s="5"/>
+    </row>
+    <row r="3" spans="2:23" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -7864,8 +7868,9 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="2:22" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="2:23" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="16" t="s">
         <v>24</v>
       </c>
@@ -7884,50 +7889,54 @@
       <c r="G4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="I4" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="47"/>
+      <c r="K4" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="13">
+      <c r="L4" s="13">
         <f>C5</f>
         <v>43164</v>
       </c>
-      <c r="M4" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-    </row>
-    <row r="5" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+    </row>
+    <row r="5" spans="2:23" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="35">
         <v>43164</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="44">
         <v>43165</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="36">
         <v>1</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="37">
         <v>1</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="37">
         <v>0</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="49">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="54"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="2:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="27" t="s">
         <v>32</v>
       </c>
@@ -7946,12 +7955,16 @@
       <c r="G6" s="20">
         <v>0</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="50">
         <v>1</v>
       </c>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="27" t="s">
         <v>33</v>
       </c>
@@ -7970,11 +7983,15 @@
       <c r="G7" s="20">
         <v>0</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="50">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="27" t="s">
         <v>34</v>
       </c>
@@ -7991,14 +8008,18 @@
         <v>1</v>
       </c>
       <c r="G8" s="20">
-        <f t="shared" ref="G8:G29" si="0">IF(F8="","",(D8-C8)-F8)</f>
+        <f t="shared" ref="G8:G27" si="0">IF(F8="","",(D8-C8)-F8)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="50">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="27" t="s">
         <v>39</v>
       </c>
@@ -8017,11 +8038,15 @@
       <c r="G9" s="20">
         <v>0</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="50">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="27" t="s">
         <v>35</v>
       </c>
@@ -8041,35 +8066,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="50">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="40" t="s">
-        <v>47</v>
+      <c r="I10" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:23" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="38" t="s">
+        <v>46</v>
       </c>
       <c r="C11" s="31">
         <v>43165</v>
       </c>
       <c r="D11" s="32">
-        <f t="shared" ref="D11:D29" si="1">IF(ISBLANK(E11),"",E11+C11)</f>
-        <v>43166</v>
-      </c>
-      <c r="E11" s="35">
+        <v>43168</v>
+      </c>
+      <c r="E11" s="34">
+        <v>3</v>
+      </c>
+      <c r="F11" s="33">
+        <v>2</v>
+      </c>
+      <c r="G11" s="33">
         <v>1</v>
       </c>
-      <c r="F11" s="33">
-        <v>1</v>
-      </c>
-      <c r="G11" s="33">
-        <v>0</v>
-      </c>
-      <c r="H11" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="I11" s="54"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="27" t="s">
         <v>37</v>
       </c>
@@ -8077,170 +8107,200 @@
         <v>43165</v>
       </c>
       <c r="D12" s="19">
-        <f t="shared" si="1"/>
-        <v>43166</v>
+        <f t="shared" ref="D11:D27" si="1">IF(ISBLANK(E12),"",E12+C12)</f>
+        <v>43168</v>
       </c>
       <c r="E12" s="6">
+        <v>3</v>
+      </c>
+      <c r="F12" s="20">
+        <v>2</v>
+      </c>
+      <c r="G12" s="20">
         <v>1</v>
       </c>
-      <c r="F12" s="20">
-        <v>1</v>
-      </c>
-      <c r="G12" s="20">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="50">
+        <v>0.75</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="3">
         <v>43165</v>
       </c>
       <c r="D13" s="19">
         <f t="shared" si="1"/>
-        <v>43166</v>
+        <v>43168</v>
       </c>
       <c r="E13" s="6">
+        <v>3</v>
+      </c>
+      <c r="F13" s="20">
+        <v>2</v>
+      </c>
+      <c r="G13" s="20">
         <v>1</v>
       </c>
-      <c r="F13" s="20">
-        <v>1</v>
-      </c>
-      <c r="G13" s="20">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="50">
+        <v>0.75</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="42">
+        <v>58</v>
+      </c>
+      <c r="C14" s="40">
         <v>43165</v>
       </c>
       <c r="D14" s="19">
         <f t="shared" si="1"/>
-        <v>43166</v>
+        <v>43168</v>
       </c>
       <c r="E14" s="6">
+        <v>3</v>
+      </c>
+      <c r="F14" s="20">
+        <v>2</v>
+      </c>
+      <c r="G14" s="20">
         <v>1</v>
       </c>
-      <c r="F14" s="20">
-        <v>1</v>
-      </c>
-      <c r="G14" s="20">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="50">
+        <v>0.75</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="2:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="27" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3">
         <v>43165</v>
       </c>
       <c r="D15" s="19">
         <f t="shared" si="1"/>
-        <v>43166</v>
+        <v>43168</v>
       </c>
       <c r="E15" s="6">
+        <v>3</v>
+      </c>
+      <c r="F15" s="20">
+        <v>2</v>
+      </c>
+      <c r="G15" s="20">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F15" s="20">
-        <v>1</v>
-      </c>
-      <c r="G15" s="20">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="50">
+        <v>0.75</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="2:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3">
         <v>43165</v>
       </c>
       <c r="D16" s="19">
         <f t="shared" si="1"/>
-        <v>43166</v>
+        <v>43168</v>
       </c>
       <c r="E16" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="50">
+        <v>0.75</v>
+      </c>
+      <c r="I16" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3">
         <v>43165</v>
       </c>
       <c r="D17" s="19">
         <f t="shared" si="1"/>
-        <v>43166</v>
+        <v>43168</v>
       </c>
       <c r="E17" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="50">
+        <v>0.75</v>
+      </c>
+      <c r="I17" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3">
         <v>43165</v>
       </c>
       <c r="D18" s="19">
         <f t="shared" si="1"/>
-        <v>43166</v>
+        <v>43168</v>
       </c>
       <c r="E18" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="50">
+        <v>0.05</v>
+      </c>
+      <c r="I18" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="27" t="s">
         <v>43</v>
       </c>
@@ -8249,255 +8309,291 @@
       </c>
       <c r="D19" s="19">
         <f t="shared" si="1"/>
-        <v>43166</v>
+        <v>43168</v>
       </c>
       <c r="E19" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="50">
+        <v>0.75</v>
+      </c>
+      <c r="I19" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="27" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C20" s="3">
         <v>43165</v>
       </c>
       <c r="D20" s="19">
         <f t="shared" si="1"/>
-        <v>43166</v>
+        <v>43168</v>
       </c>
       <c r="E20" s="6">
+        <v>3</v>
+      </c>
+      <c r="F20" s="20">
+        <v>2</v>
+      </c>
+      <c r="G20" s="20">
         <v>1</v>
       </c>
-      <c r="F20" s="20">
-        <v>1</v>
-      </c>
-      <c r="G20" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H20" s="50">
+        <v>0.75</v>
+      </c>
+      <c r="I20" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="27" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C21" s="3">
         <v>43165</v>
       </c>
       <c r="D21" s="19">
         <f t="shared" si="1"/>
-        <v>43166</v>
+        <v>43168</v>
       </c>
       <c r="E21" s="6">
+        <v>3</v>
+      </c>
+      <c r="F21" s="20">
+        <v>2</v>
+      </c>
+      <c r="G21" s="20">
         <v>1</v>
       </c>
-      <c r="F21" s="20">
-        <v>1</v>
-      </c>
-      <c r="G21" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="50">
+        <v>0.75</v>
+      </c>
+      <c r="I21" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" s="3">
         <v>43165</v>
       </c>
       <c r="D22" s="19">
         <f t="shared" si="1"/>
-        <v>43166</v>
+        <v>43168</v>
       </c>
       <c r="E22" s="6">
+        <v>3</v>
+      </c>
+      <c r="F22" s="20">
+        <v>2</v>
+      </c>
+      <c r="G22" s="20">
         <v>1</v>
       </c>
-      <c r="F22" s="20">
-        <v>1</v>
-      </c>
-      <c r="G22" s="20">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="50">
+        <v>0.75</v>
+      </c>
+      <c r="I22" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C23" s="3">
         <v>43165</v>
       </c>
       <c r="D23" s="19">
         <f t="shared" si="1"/>
-        <v>43166</v>
+        <v>43168</v>
       </c>
       <c r="E23" s="6">
+        <v>3</v>
+      </c>
+      <c r="F23" s="20">
+        <v>2</v>
+      </c>
+      <c r="G23" s="20">
         <v>1</v>
       </c>
-      <c r="F23" s="20">
-        <v>1</v>
-      </c>
-      <c r="G23" s="20">
-        <v>0</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="50">
+        <v>0.75</v>
+      </c>
+      <c r="I23" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="27" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C24" s="3">
         <v>43165</v>
       </c>
       <c r="D24" s="19">
         <f t="shared" si="1"/>
-        <v>43166</v>
+        <v>43168</v>
       </c>
       <c r="E24" s="6">
+        <v>3</v>
+      </c>
+      <c r="F24" s="20">
+        <v>2</v>
+      </c>
+      <c r="G24" s="20">
         <v>1</v>
       </c>
-      <c r="F24" s="20">
-        <v>1</v>
-      </c>
-      <c r="G24" s="20">
-        <v>0</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="50">
+        <v>0.75</v>
+      </c>
+      <c r="I24" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="27" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C25" s="3">
         <v>43165</v>
       </c>
       <c r="D25" s="19">
         <f t="shared" si="1"/>
-        <v>43166</v>
+        <v>43168</v>
       </c>
       <c r="E25" s="6">
+        <v>3</v>
+      </c>
+      <c r="F25" s="20">
+        <v>2</v>
+      </c>
+      <c r="G25" s="20">
         <v>1</v>
       </c>
-      <c r="F25" s="20">
-        <v>1</v>
-      </c>
-      <c r="G25" s="20">
+      <c r="H25" s="50">
+        <v>0.75</v>
+      </c>
+      <c r="I25" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="45">
+        <v>43167</v>
+      </c>
+      <c r="D26" s="32">
+        <f t="shared" si="1"/>
+        <v>43183</v>
+      </c>
+      <c r="E26" s="34">
+        <v>16</v>
+      </c>
+      <c r="F26" s="33">
+        <f t="shared" ref="F26:F33" si="2">IF(((D26)=""),"",(H26)*(D26-C26))</f>
         <v>0</v>
       </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="3">
-        <v>43165</v>
-      </c>
-      <c r="D26" s="19">
-        <f t="shared" si="1"/>
-        <v>43166</v>
-      </c>
-      <c r="E26" s="6">
-        <v>1</v>
-      </c>
-      <c r="F26" s="20">
-        <v>1</v>
-      </c>
-      <c r="G26" s="20">
+      <c r="G26" s="33">
+        <f>IF(F26="","",(D26-C26)-F26)</f>
+        <v>16</v>
+      </c>
+      <c r="H26" s="51">
         <v>0</v>
       </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="3">
-        <v>43165</v>
+      <c r="I26" s="54"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="42">
+        <v>43167</v>
       </c>
       <c r="D27" s="19">
         <f t="shared" si="1"/>
-        <v>43166</v>
-      </c>
-      <c r="E27" s="6">
+        <v>43168</v>
+      </c>
+      <c r="E27" s="10">
         <v>1</v>
       </c>
       <c r="F27" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="20">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G27" s="20">
+      <c r="H27" s="52">
         <v>0</v>
       </c>
-      <c r="H27" s="7">
+      <c r="I27" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="42">
+        <v>43167</v>
+      </c>
+      <c r="D28" s="41">
+        <v>43168</v>
+      </c>
+      <c r="E28" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="47">
+      <c r="F28" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="20">
+        <v>1</v>
+      </c>
+      <c r="H28" s="50">
+        <v>0</v>
+      </c>
+      <c r="I28" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="42">
         <v>43167</v>
       </c>
-      <c r="D28" s="32">
-        <f t="shared" si="1"/>
-        <v>43183</v>
-      </c>
-      <c r="E28" s="35">
-        <v>16</v>
-      </c>
-      <c r="F28" s="33">
-        <f t="shared" ref="F28:F35" si="2">IF(((D28)=""),"",(H28)*(D28-C28))</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="33">
-        <f>IF(F28="","",(D28-C28)-F28)</f>
-        <v>16</v>
-      </c>
-      <c r="H28" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="44">
-        <v>43167</v>
-      </c>
-      <c r="D29" s="19">
-        <f t="shared" si="1"/>
+      <c r="D29" s="41">
         <v>43168</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="6">
         <v>1</v>
       </c>
       <c r="F29" s="20">
@@ -8505,22 +8601,25 @@
         <v>0</v>
       </c>
       <c r="G29" s="20">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="50">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="44">
-        <v>43167</v>
-      </c>
-      <c r="D30" s="43">
+      <c r="I29" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="42">
         <v>43168</v>
+      </c>
+      <c r="D30" s="41">
+        <v>43169</v>
       </c>
       <c r="E30" s="6">
         <v>1</v>
@@ -8532,43 +8631,51 @@
       <c r="G30" s="20">
         <v>1</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="50">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I30" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="44">
-        <v>43167</v>
-      </c>
-      <c r="D31" s="43">
+        <v>57</v>
+      </c>
+      <c r="C31" s="42">
         <v>43168</v>
       </c>
+      <c r="D31" s="41">
+        <v>43180</v>
+      </c>
       <c r="E31" s="6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F31" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G31" s="20">
-        <v>1</v>
-      </c>
-      <c r="H31" s="7">
+        <v>12</v>
+      </c>
+      <c r="H31" s="50">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I31" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="44">
-        <v>43168</v>
-      </c>
-      <c r="D32" s="43">
+        <v>49</v>
+      </c>
+      <c r="C32" s="42">
         <v>43169</v>
+      </c>
+      <c r="D32" s="41">
+        <v>43185</v>
       </c>
       <c r="E32" s="6">
         <v>1</v>
@@ -8580,207 +8687,168 @@
       <c r="G32" s="20">
         <v>1</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="50">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I32" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="44">
-        <v>43168</v>
-      </c>
-      <c r="D33" s="43">
+        <v>51</v>
+      </c>
+      <c r="C33" s="43">
         <v>43180</v>
       </c>
+      <c r="D33" s="41">
+        <v>43181</v>
+      </c>
       <c r="E33" s="6">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F33" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G33" s="20">
-        <v>12</v>
-      </c>
-      <c r="H33" s="7">
+        <v>1</v>
+      </c>
+      <c r="H33" s="50">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I33" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="44">
-        <v>43169</v>
-      </c>
-      <c r="D34" s="43">
-        <v>43185</v>
+        <v>60</v>
+      </c>
+      <c r="C34" s="43">
+        <v>43181</v>
+      </c>
+      <c r="D34" s="41">
+        <v>43182</v>
       </c>
       <c r="E34" s="6">
         <v>1</v>
       </c>
       <c r="F34" s="20">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G34" s="20">
         <v>1</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="50">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I34" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="45">
-        <v>43180</v>
-      </c>
-      <c r="D35" s="43">
-        <v>43181</v>
+        <v>61</v>
+      </c>
+      <c r="C35" s="9">
+        <v>43182</v>
+      </c>
+      <c r="D35" s="41">
+        <v>43183</v>
       </c>
       <c r="E35" s="6">
         <v>1</v>
       </c>
       <c r="F35" s="20">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="20">
         <v>1</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="50">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="45">
-        <v>43181</v>
-      </c>
-      <c r="D36" s="43">
+      <c r="I35" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="46">
         <v>43182</v>
       </c>
-      <c r="E36" s="6">
+      <c r="D36" s="32">
+        <f>IF(ISBLANK(E36),"",E36+C36)</f>
+        <v>43183</v>
+      </c>
+      <c r="E36" s="34">
         <v>1</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="33">
         <v>0</v>
       </c>
-      <c r="G36" s="20">
+      <c r="G36" s="33">
         <v>1</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="9">
-        <v>43182</v>
-      </c>
-      <c r="D37" s="43">
-        <v>43183</v>
-      </c>
-      <c r="E37" s="6">
-        <v>1</v>
-      </c>
-      <c r="F37" s="20">
-        <v>0</v>
-      </c>
-      <c r="G37" s="20">
-        <v>1</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="48">
-        <v>43182</v>
-      </c>
-      <c r="D38" s="32">
-        <f>IF(ISBLANK(E38),"",E38+C38)</f>
-        <v>43183</v>
-      </c>
-      <c r="E38" s="35">
-        <v>1</v>
-      </c>
-      <c r="F38" s="33">
-        <v>0</v>
-      </c>
-      <c r="G38" s="33">
-        <v>1</v>
-      </c>
-      <c r="H38" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I36" s="54"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="14"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="14"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="14"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="14"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="4"/>
-      <c r="J40" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="K40" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="49"/>
-      <c r="P40" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51"/>
-    </row>
-    <row r="41" spans="2:18" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="14"/>
-      <c r="C41" s="2"/>
+      <c r="C41" s="15"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="K41" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="50"/>
-    </row>
-    <row r="42" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="14"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -8789,7 +8857,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="14"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -8798,7 +8866,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="14"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -8807,16 +8875,16 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
+      <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="14"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -8825,7 +8893,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="14"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -8834,7 +8902,7 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="2:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="14"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -8933,50 +9001,10 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="14"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-    </row>
-    <row r="60" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="14"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-    </row>
-    <row r="61" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="14"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-    </row>
-    <row r="62" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="14"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="P41:R41"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:T2"/>
+    <mergeCell ref="N4:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
